--- a/Threat intelligence/Financial Cybersecurity News.xlsx
+++ b/Threat intelligence/Financial Cybersecurity News.xlsx
@@ -6,23 +6,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sover\Desktop\MyProject\金融產學\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sover\Desktop\MyProject\金融產學\情蒐\112_ThreatIncidents\Threat intelligence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CD2C52-FA99-4387-BC58-CC3FB3042764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A7C36A3-17A8-49EA-B042-0A4A0858C641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-21720" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="資安新聞" sheetId="1" r:id="rId1"/>
     <sheet name="CVE" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="196">
   <si>
     <t>編號</t>
   </si>
@@ -668,22 +669,6 @@
   </si>
   <si>
     <r>
-      <t>不明。事件的特殊之處在於外洩的資料以紙本形式寄送至該銀行60多家分行和金管會。金管會指出該銀行在內部控制制度上有嚴重缺失，包括未能保留相關軌跡，使外洩來源至今仍不清楚。這意味著缺乏足夠的資訊來追蹤外洩資料的確切原因和過程</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>​​。</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>CVE-2023-23397是一個嚴重的特權提升/認證繞過漏洞。攻擊者發送含有擴展的Message Application Program Interface (MAPI) 屬性的郵件給受害者，這些郵件包含一個指向遠端攻擊者控制的Server Message Block (SMB) 的Universal Naming Convention (UNC) 路徑。攻擊者遠程發送惡意的日曆邀請，觸發Outlook中的API端點PlayReminderSound，從而利用“PidLidReminderFileParameter”選項進行攻擊。當受害者連接到攻擊者的SMB服務器時，會自動傳送用戶的NTLM協商消息，攻擊者可以利用這些信息對支持NTLM認證的其他系統進行認證</t>
     </r>
     <r>
@@ -702,12 +687,175 @@
     <t>LockBit駭客組織利用Citrix Bleed漏洞（CVE-2023-4966）攻擊未更新修補的Citrix Netscaler系統。這個漏洞容易被利用，且攻擊過程中設備不會留下請求記錄，使得資安人員難以追蹤入侵痕跡。LockBit駭客通過這個漏洞入侵網路環境後，會部署遠端管理工具，提升權限，竊取資料，並最終部署勒索軟體加密檔案​</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>駭客正濫用OAuth應用以自動化攻擊行動</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>不明。事件的特殊之處在於外洩的資料以紙本形式寄送至該銀行60多家分行和金管會。金管會指出該銀行在內部控制制度上有嚴重缺失，包括未能保留相關軌跡，使外洩來源至今仍不清楚。這意味著缺乏足夠的資訊來追蹤外洩資料的確切原因和過程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>​​。</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>透過OAuth應用攻擊各種系統</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>微軟發現駭客透過網釣和密碼潑灑攻擊入侵帳號，特別是那些可編輯OAuth應用的帳號。他們利用這些帳號創建或修改OAuth應用，進行加密貨幣挖礦、商業電子郵件詐騙（BEC），或發送大量垃圾郵件。其中，一些駭客透過中間人攻擊竊取會話令牌，再以此執行會話Cookie重放，並進入受害者的Outlook信箱或利用Microsoft Graph API資源發送垃圾郵件</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ithome.com.tw/news/160308</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球有1,800個銀行程式遭銀行木馬鎖定</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>銀行行動程式</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>詳盡的攻擊手法描述：駭客利用偽裝成合法程式的銀行木馬程式滲透使用者手機上的銀行程式，竊取憑證、金融資訊及個人資訊。近年來惡意程式已發展成產業，並新增自動轉帳技術，在取得銀行憑證後檢查帳戶餘額並執行轉帳，以騙取一次性密碼並轉移資金</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ithome.com.tw/news/160352</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>微軟破獲建立7.5億個詐騙Outlook帳戶的駭客組織Storm-1152</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Outlook帳戶</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Storm-1152提供網路犯罪即服務，專門建立並銷售偽造的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Outlook</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>帳戶給犯罪組織，包括勒索軟體集團、資訊竊盜或財務勒索組織。他們使用機器人快速註冊帳戶並檢查其可用性，還銷售可繞過身分驗證軟體的工具。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Storm-1152</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的業務公開進行，提供完整的客戶支援</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>​</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ithome.com.tw/news/160353</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active exploitation of Cisco IOS XE Software Web Management User Interface vulnerabilities</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2023-20198   CVE-2023-20273</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cisco IOS XE軟體的Web管理用戶介面</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.talosintelligence.com/active-exploitation-of-cisco-ios-xe-software/</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cisco識別到對Cisco IOS XE軟體的Web用戶介面功能（CVE-2023-20198）的積極利用，此漏洞影響運行該軟體且啟用了HTTP或HTTPS服務器功能的物理和虛擬設備。攻擊者通過這一漏洞獲取設備的最高級別（15級）訪問權限，創建本地用戶並以普通用戶身份登錄。接著，攻擊者利用未經授權的本地用戶帳號來利用WebUI功能的另一個未知漏洞（CVE-2023-20273），注入具有提升（root）權限的命令，從而在設備上運行任意命令。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>MalDoc in PDF - Detection bypass by embedding a malicious Word file into a PDF file</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>JPCERT/CC發現了一種名為"MalDoc in PDF"的新攻擊技術，該技術通過在PDF文件中嵌入具有宏的惡意Word文件來規避檢測。這種方法創建的文件在外觀上是PDF，但能在Word中打開並執行VBS，進行惡意行為。這一技術的關鍵在於攻擊者在PDF對象後添加一個在Word中創建的mht文件。這些文件在分析時難以被常規PDF分析工具識別，且在Word中打開時表現出非預期行為，而在PDF查看器中則不顯示惡意行為。雖然這種技術不會規避Word中禁用宏自動執行的設置，但由於文件被識別為PDF，所以在使用自動化惡意軟件分析工具時需要特別留意​</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blogs.jpcert.or.jp/en/2023/08/maldocinpdf.html</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lapsus$駭客組織利用了多種簡單技巧來入侵數十家知名企業。主要的攻擊手法包括社交工程、SIM卡挾持、賄賂企業員工或招募他們成為內線，以及向初始訪問經紀人（IAB）購買存取憑證。他們通過社交媒體蒐集企業員工的個人資料來偽裝身分，或採用網站、語音或簡訊進行網釣攻擊。在SIM卡挾持方面，Lapsus$會蒐集目標對象的公開資料，然後向電信業者要求相同號碼的新SIM卡，以此方式接收雙因素認證資料。在少數情況下，Lapsus$會針對已知漏洞進行攻擊，但從未使用過零時差漏洞。CSRB發現，這些成功的攻擊主要是因為受害企業未考慮到文字簡訊或語音通話作為多因素身份認證的風險，因此呼籲企業轉向更安全、更易用且無需密碼的身份認證方案</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ithome.com.tw/news/158266</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>駭客組織Lapsus$僅利用諸如SIM卡挾持等簡單的技倆，就入侵數十家知名企業</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -822,6 +970,25 @@
     <font>
       <u/>
       <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -979,7 +1146,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1144,9 +1311,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1164,6 +1328,30 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1386,8 +1574,8 @@
   </sheetPr>
   <dimension ref="A1:G990"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="78" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="78" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
@@ -1470,7 +1658,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="46.5">
+    <row r="4" spans="1:7" ht="71.5" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1677,7 +1865,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="93">
+    <row r="13" spans="1:7" ht="77.5">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1724,300 +1912,387 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="62">
-      <c r="A15" s="53">
+      <c r="A15" s="62">
         <v>14</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="F15" s="55" t="s">
-        <v>169</v>
+      <c r="F15" s="64" t="s">
+        <v>172</v>
       </c>
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="49" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="77.5">
-      <c r="A16" s="53">
+      <c r="A16" s="62">
         <v>15</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="D16" s="53" t="s">
+      <c r="D16" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="E16" s="54" t="s">
+      <c r="E16" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="G16" s="56" t="s">
+      <c r="G16" s="49" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="93">
-      <c r="A17" s="53">
+      <c r="A17" s="62">
         <v>16</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="D17" s="53" t="s">
+      <c r="D17" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="E17" s="54" t="s">
+      <c r="E17" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="F17" s="55" t="s">
+      <c r="F17" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="G17" s="56" t="s">
+      <c r="G17" s="49" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="108.5">
-      <c r="A18" s="53">
+      <c r="A18" s="62">
         <v>17</v>
       </c>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="D18" s="53" t="s">
+      <c r="D18" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="E18" s="54" t="s">
+      <c r="E18" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="F18" s="55" t="s">
+      <c r="F18" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="G18" s="56" t="s">
+      <c r="G18" s="49" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="108.5">
-      <c r="A19" s="53">
+      <c r="A19" s="62">
         <v>18</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="D19" s="53" t="s">
+      <c r="D19" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="E19" s="54" t="s">
+      <c r="E19" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="F19" s="55" t="s">
+      <c r="F19" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="G19" s="56" t="s">
+      <c r="G19" s="49" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="77.5">
-      <c r="A20" s="53">
+      <c r="A20" s="62">
         <v>19</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D20" s="53" t="s">
+      <c r="D20" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="E20" s="54" t="s">
+      <c r="E20" s="63" t="s">
         <v>162</v>
       </c>
-      <c r="F20" s="55" t="s">
+      <c r="F20" s="64" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" s="66" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="77.5">
+      <c r="A21" s="53">
+        <v>20</v>
+      </c>
+      <c r="B21" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="G20" s="56" t="s">
-        <v>164</v>
+      <c r="C21" s="53" t="s">
+        <v>125</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.5">
-      <c r="A21" s="4"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="50"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="50"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.5">
-      <c r="A23" s="4"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="11"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.5">
-      <c r="A24" s="4"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.5">
-      <c r="A25" s="4"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.5">
-      <c r="A26" s="4"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="3"/>
+      <c r="D21" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="F21" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="G21" s="67" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="62">
+      <c r="A22" s="53">
+        <v>21</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="F22" s="68" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22" s="67" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="62">
+      <c r="A23" s="53">
+        <v>22</v>
+      </c>
+      <c r="B23" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" s="54" t="s">
+        <v>182</v>
+      </c>
+      <c r="F23" s="68" t="s">
+        <v>183</v>
+      </c>
+      <c r="G23" s="69" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="120.5" customHeight="1">
+      <c r="A24" s="53">
+        <v>23</v>
+      </c>
+      <c r="B24" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="E24" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="F24" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="G24" s="48" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="124">
+      <c r="A25" s="53">
+        <v>24</v>
+      </c>
+      <c r="B25" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" s="68" t="s">
+        <v>191</v>
+      </c>
+      <c r="G25" s="49" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="172.5" customHeight="1">
+      <c r="A26" s="53">
+        <v>25</v>
+      </c>
+      <c r="B26" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="C26" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" s="68" t="s">
+        <v>193</v>
+      </c>
+      <c r="G26" s="48" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="15.5">
-      <c r="A27" s="4"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="3"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="48"/>
     </row>
     <row r="28" spans="1:7" ht="15.5">
-      <c r="A28" s="4"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="50"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="68"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" ht="15.5">
-      <c r="A29" s="4"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="50"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="68"/>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" ht="15.5">
-      <c r="A30" s="4"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="50"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="68"/>
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" ht="15.5">
-      <c r="A31" s="4"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="50"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="68"/>
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" ht="15.5">
-      <c r="A32" s="4"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="50"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="68"/>
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" ht="15.5">
-      <c r="A33" s="4"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="50"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="68"/>
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" ht="15.5">
-      <c r="A34" s="4"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="50"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="68"/>
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" ht="15.5">
-      <c r="A35" s="4"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="50"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="68"/>
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" ht="15.5">
-      <c r="A36" s="4"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="50"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="68"/>
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" ht="15.5">
-      <c r="A37" s="4"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="50"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="68"/>
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" ht="15.5">
-      <c r="A38" s="4"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="50"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="68"/>
       <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" ht="15.5">
@@ -2026,7 +2301,7 @@
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="11"/>
-      <c r="F39" s="50"/>
+      <c r="F39" s="68"/>
       <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" ht="15.5">
@@ -2035,7 +2310,7 @@
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="11"/>
-      <c r="F40" s="50"/>
+      <c r="F40" s="68"/>
       <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7" ht="15.5">
@@ -2044,7 +2319,7 @@
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="11"/>
-      <c r="F41" s="50"/>
+      <c r="F41" s="68"/>
       <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:7" ht="15.5">
@@ -2053,7 +2328,7 @@
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="11"/>
-      <c r="F42" s="50"/>
+      <c r="F42" s="68"/>
       <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7" ht="15.5">
@@ -2062,7 +2337,7 @@
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="11"/>
-      <c r="F43" s="50"/>
+      <c r="F43" s="68"/>
       <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:7" ht="15.5">
@@ -10610,9 +10885,15 @@
     <hyperlink ref="G18" r:id="rId17" xr:uid="{8FDDE04B-4445-4ED4-8336-311F2DBC3D1E}"/>
     <hyperlink ref="G19" r:id="rId18" xr:uid="{C4A4E801-05F8-4D02-B8BC-19D91109D758}"/>
     <hyperlink ref="G20" r:id="rId19" xr:uid="{E3BE7FE9-EF50-48CA-8CB4-6CFC57015B5D}"/>
+    <hyperlink ref="G21" r:id="rId20" xr:uid="{ADCE1C5A-9AB5-4035-A897-179F8CAE324C}"/>
+    <hyperlink ref="G22" r:id="rId21" xr:uid="{247BBEF1-787D-4841-9061-A849FC0F7842}"/>
+    <hyperlink ref="G23" r:id="rId22" xr:uid="{7730F0CB-13AD-4546-99DC-B74AD275246A}"/>
+    <hyperlink ref="G24" r:id="rId23" xr:uid="{EF752F57-5049-431C-BB08-FF06484468D6}"/>
+    <hyperlink ref="G25" r:id="rId24" xr:uid="{16A3EECF-D814-45CC-A27C-0C3CB558645E}"/>
+    <hyperlink ref="G26" r:id="rId25" xr:uid="{5DDBD58A-D9C7-489D-B0E9-39B0BC5759EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
 
@@ -10623,8 +10904,8 @@
   </sheetPr>
   <dimension ref="A1:AB999"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
@@ -11271,19 +11552,19 @@
       <c r="A16" s="53">
         <v>15</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="57" t="s">
         <v>142</v>
       </c>
       <c r="D16" s="55" t="s">
         <v>144</v>
       </c>
       <c r="E16" s="55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
-      <c r="F16" s="59" t="s">
+      <c r="F16" s="58" t="s">
         <v>145</v>
       </c>
       <c r="G16" s="17"/>
@@ -11313,19 +11594,19 @@
       <c r="A17" s="53">
         <v>16</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="D17" s="61" t="s">
+      <c r="D17" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="E17" s="61" t="s">
+      <c r="E17" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="F17" s="62" t="s">
+      <c r="F17" s="61" t="s">
         <v>168</v>
       </c>
       <c r="G17" s="17"/>
